--- a/plano-back/tabelaPrincipal.xlsx
+++ b/plano-back/tabelaPrincipal.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB196"/>
+  <dimension ref="A1:BC196"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -545,6 +545,9 @@
       <c r="BB1" t="str">
         <v>61A-I</v>
       </c>
+      <c r="BC1" t="str">
+        <v>TST</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -709,6 +712,9 @@
       <c r="BB2" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC2" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -873,6 +879,9 @@
       <c r="BB3" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC3" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -1037,6 +1046,9 @@
       <c r="BB4" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC4" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -1201,6 +1213,9 @@
       <c r="BB5" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC5" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -1365,6 +1380,9 @@
       <c r="BB6" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC6" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -1529,6 +1547,9 @@
       <c r="BB7" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC7" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -1693,6 +1714,9 @@
       <c r="BB8" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC8" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -1857,6 +1881,9 @@
       <c r="BB9" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC9" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -2021,6 +2048,9 @@
       <c r="BB10" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC10" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -2185,6 +2215,9 @@
       <c r="BB11" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC11" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -2349,6 +2382,9 @@
       <c r="BB12" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC12" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -2513,6 +2549,9 @@
       <c r="BB13" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC13" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -2677,6 +2716,9 @@
       <c r="BB14" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC14" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -2841,6 +2883,9 @@
       <c r="BB15" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC15" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -3005,6 +3050,9 @@
       <c r="BB16" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC16" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -3169,6 +3217,9 @@
       <c r="BB17" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC17" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -3333,6 +3384,9 @@
       <c r="BB18" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC18" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -3497,6 +3551,9 @@
       <c r="BB19" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC19" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -3661,6 +3718,9 @@
       <c r="BB20" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC20" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -3825,6 +3885,9 @@
       <c r="BB21" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC21" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -3989,6 +4052,9 @@
       <c r="BB22" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC22" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -4153,6 +4219,9 @@
       <c r="BB23" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC23" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -4317,6 +4386,9 @@
       <c r="BB24" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC24" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -4481,6 +4553,9 @@
       <c r="BB25" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC25" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -4645,6 +4720,9 @@
       <c r="BB26" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC26" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -4809,6 +4887,9 @@
       <c r="BB27" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC27" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -4973,6 +5054,9 @@
       <c r="BB28" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC28" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -5137,6 +5221,9 @@
       <c r="BB29" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC29" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -5301,6 +5388,9 @@
       <c r="BB30" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC30" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -5465,6 +5555,9 @@
       <c r="BB31" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC31" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -5629,6 +5722,9 @@
       <c r="BB32" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC32" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -5793,6 +5889,9 @@
       <c r="BB33" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC33" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -5957,6 +6056,9 @@
       <c r="BB34" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC34" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -6121,6 +6223,9 @@
       <c r="BB35" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC35" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -6285,6 +6390,9 @@
       <c r="BB36" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC36" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -6449,6 +6557,9 @@
       <c r="BB37" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC37" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -6613,6 +6724,9 @@
       <c r="BB38" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC38" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -6777,6 +6891,9 @@
       <c r="BB39" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC39" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -6941,6 +7058,9 @@
       <c r="BB40" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC40" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -7105,6 +7225,9 @@
       <c r="BB41" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC41" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -7269,6 +7392,9 @@
       <c r="BB42" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC42" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -7433,6 +7559,9 @@
       <c r="BB43" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC43" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -7597,6 +7726,9 @@
       <c r="BB44" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC44" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -7761,6 +7893,9 @@
       <c r="BB45" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC45" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -7925,6 +8060,9 @@
       <c r="BB46" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC46" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -8089,6 +8227,9 @@
       <c r="BB47" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC47" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -8253,6 +8394,9 @@
       <c r="BB48" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC48" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -8417,6 +8561,9 @@
       <c r="BB49" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC49" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -8581,6 +8728,9 @@
       <c r="BB50" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC50" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -8745,6 +8895,9 @@
       <c r="BB51" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC51" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -8909,6 +9062,9 @@
       <c r="BB52" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC52" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -9073,6 +9229,9 @@
       <c r="BB53" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC53" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -9237,6 +9396,9 @@
       <c r="BB54" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC54" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -9401,6 +9563,9 @@
       <c r="BB55" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC55" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -9565,6 +9730,9 @@
       <c r="BB56" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC56" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -9729,6 +9897,9 @@
       <c r="BB57" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC57" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -9893,6 +10064,9 @@
       <c r="BB58" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC58" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -10057,6 +10231,9 @@
       <c r="BB59" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC59" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -10221,6 +10398,9 @@
       <c r="BB60" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC60" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -10385,6 +10565,9 @@
       <c r="BB61" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC61" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -10549,6 +10732,9 @@
       <c r="BB62" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC62" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -10713,6 +10899,9 @@
       <c r="BB63" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC63" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -10877,6 +11066,9 @@
       <c r="BB64" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC64" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -11041,6 +11233,9 @@
       <c r="BB65" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC65" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -11205,6 +11400,9 @@
       <c r="BB66" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC66" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -11369,6 +11567,9 @@
       <c r="BB67" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC67" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -11533,6 +11734,9 @@
       <c r="BB68" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC68" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -11697,6 +11901,9 @@
       <c r="BB69" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC69" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -11861,6 +12068,9 @@
       <c r="BB70" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC70" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -12025,6 +12235,9 @@
       <c r="BB71" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC71" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -12189,6 +12402,9 @@
       <c r="BB72" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC72" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -12353,6 +12569,9 @@
       <c r="BB73" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC73" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -12517,6 +12736,9 @@
       <c r="BB74" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC74" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -12681,6 +12903,9 @@
       <c r="BB75" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC75" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -12845,6 +13070,9 @@
       <c r="BB76" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC76" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -13009,6 +13237,9 @@
       <c r="BB77" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC77" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -13173,6 +13404,9 @@
       <c r="BB78" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC78" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -13337,6 +13571,9 @@
       <c r="BB79" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC79" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -13501,6 +13738,9 @@
       <c r="BB80" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC80" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -13665,6 +13905,9 @@
       <c r="BB81" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC81" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -13829,6 +14072,9 @@
       <c r="BB82" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC82" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -13993,6 +14239,9 @@
       <c r="BB83" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC83" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -14157,6 +14406,9 @@
       <c r="BB84" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC84" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -14321,6 +14573,9 @@
       <c r="BB85" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC85" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -14485,6 +14740,9 @@
       <c r="BB86" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC86" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -14649,6 +14907,9 @@
       <c r="BB87" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC87" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -14813,6 +15074,9 @@
       <c r="BB88" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC88" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -14977,6 +15241,9 @@
       <c r="BB89" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC89" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -15141,6 +15408,9 @@
       <c r="BB90" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC90" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -15305,6 +15575,9 @@
       <c r="BB91" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC91" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -15469,6 +15742,9 @@
       <c r="BB92" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC92" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -15633,6 +15909,9 @@
       <c r="BB93" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC93" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -15797,6 +16076,9 @@
       <c r="BB94" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC94" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -15961,6 +16243,9 @@
       <c r="BB95" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC95" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -16125,6 +16410,9 @@
       <c r="BB96" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC96" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -16289,6 +16577,9 @@
       <c r="BB97" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC97" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -16453,6 +16744,9 @@
       <c r="BB98" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC98" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -16617,6 +16911,9 @@
       <c r="BB99" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC99" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -16781,6 +17078,9 @@
       <c r="BB100" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC100" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -16945,6 +17245,9 @@
       <c r="BB101" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC101" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -17109,6 +17412,9 @@
       <c r="BB102" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC102" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -17273,6 +17579,9 @@
       <c r="BB103" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC103" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -17437,6 +17746,9 @@
       <c r="BB104" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC104" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -17601,6 +17913,9 @@
       <c r="BB105" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC105" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -17765,6 +18080,9 @@
       <c r="BB106" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC106" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -17929,6 +18247,9 @@
       <c r="BB107" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC107" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -18093,6 +18414,9 @@
       <c r="BB108" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC108" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -18257,6 +18581,9 @@
       <c r="BB109" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC109" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -18421,6 +18748,9 @@
       <c r="BB110" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC110" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -18585,6 +18915,9 @@
       <c r="BB111" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC111" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -18749,6 +19082,9 @@
       <c r="BB112" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC112" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -18913,6 +19249,9 @@
       <c r="BB113" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC113" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -19077,6 +19416,9 @@
       <c r="BB114" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC114" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -19241,6 +19583,9 @@
       <c r="BB115" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC115" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -19405,6 +19750,9 @@
       <c r="BB116" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC116" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -19569,6 +19917,9 @@
       <c r="BB117" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC117" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -19733,6 +20084,9 @@
       <c r="BB118" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC118" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -19897,6 +20251,9 @@
       <c r="BB119" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC119" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -20061,6 +20418,9 @@
       <c r="BB120" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC120" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -20225,6 +20585,9 @@
       <c r="BB121" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC121" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -20389,6 +20752,9 @@
       <c r="BB122" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC122" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -20553,6 +20919,9 @@
       <c r="BB123" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC123" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -20717,6 +21086,9 @@
       <c r="BB124" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC124" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -20881,6 +21253,9 @@
       <c r="BB125" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC125" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -21045,6 +21420,9 @@
       <c r="BB126" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC126" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127">
@@ -21209,6 +21587,9 @@
       <c r="BB127" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC127" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128">
@@ -21373,6 +21754,9 @@
       <c r="BB128" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC128" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129">
@@ -21537,6 +21921,9 @@
       <c r="BB129" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC129" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130">
@@ -21701,6 +22088,9 @@
       <c r="BB130" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC130" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131">
@@ -21865,6 +22255,9 @@
       <c r="BB131" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC131" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132">
@@ -22029,6 +22422,9 @@
       <c r="BB132" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC132" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133">
@@ -22193,6 +22589,9 @@
       <c r="BB133" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC133" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134">
@@ -22357,6 +22756,9 @@
       <c r="BB134" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC134" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135">
@@ -22521,6 +22923,9 @@
       <c r="BB135" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC135" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136">
@@ -22685,6 +23090,9 @@
       <c r="BB136" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC136" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137">
@@ -22849,6 +23257,9 @@
       <c r="BB137" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC137" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138">
@@ -23013,6 +23424,9 @@
       <c r="BB138" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC138" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139">
@@ -23177,6 +23591,9 @@
       <c r="BB139" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC139" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140">
@@ -23341,6 +23758,9 @@
       <c r="BB140" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC140" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141">
@@ -23502,6 +23922,9 @@
       <c r="BB141" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC141" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142">
@@ -23666,6 +24089,9 @@
       <c r="BB142" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC142" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143">
@@ -23830,6 +24256,9 @@
       <c r="BB143" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC143" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144">
@@ -23994,6 +24423,9 @@
       <c r="BB144" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC144" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145">
@@ -24158,6 +24590,9 @@
       <c r="BB145" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC145" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146">
@@ -24322,6 +24757,9 @@
       <c r="BB146" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC146" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147">
@@ -24486,6 +24924,9 @@
       <c r="BB147" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC147" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148">
@@ -24650,6 +25091,9 @@
       <c r="BB148" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC148" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149">
@@ -24814,6 +25258,9 @@
       <c r="BB149" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC149" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150">
@@ -24978,6 +25425,9 @@
       <c r="BB150" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC150" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151">
@@ -25142,6 +25592,9 @@
       <c r="BB151" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC151" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152">
@@ -25303,6 +25756,9 @@
       <c r="BB152" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC152" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153">
@@ -25464,6 +25920,9 @@
       <c r="BB153" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC153" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154">
@@ -25628,6 +26087,9 @@
       <c r="BB154" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC154" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155">
@@ -25789,6 +26251,9 @@
       <c r="BB155" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC155" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156">
@@ -25953,6 +26418,9 @@
       <c r="BB156" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC156" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157">
@@ -26117,6 +26585,9 @@
       <c r="BB157" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC157" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158">
@@ -26281,6 +26752,9 @@
       <c r="BB158" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC158" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159">
@@ -26442,6 +26916,9 @@
       <c r="BB159" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC159" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160">
@@ -26606,6 +27083,9 @@
       <c r="BB160" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC160" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161">
@@ -26770,6 +27250,9 @@
       <c r="BB161" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC161" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162">
@@ -26934,6 +27417,9 @@
       <c r="BB162" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC162" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163">
@@ -27098,6 +27584,9 @@
       <c r="BB163" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC163" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164">
@@ -27262,6 +27751,9 @@
       <c r="BB164" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC164" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165">
@@ -27426,6 +27918,9 @@
       <c r="BB165" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC165" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166">
@@ -27590,6 +28085,9 @@
       <c r="BB166" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC166" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167">
@@ -27754,6 +28252,9 @@
       <c r="BB167" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC167" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168">
@@ -27918,6 +28419,9 @@
       <c r="BB168" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC168" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169">
@@ -28082,6 +28586,9 @@
       <c r="BB169" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC169" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170">
@@ -28246,6 +28753,9 @@
       <c r="BB170" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC170" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171">
@@ -28410,6 +28920,9 @@
       <c r="BB171" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC171" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172">
@@ -28574,6 +29087,9 @@
       <c r="BB172" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC172" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173">
@@ -28738,6 +29254,9 @@
       <c r="BB173" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC173" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174">
@@ -28902,6 +29421,9 @@
       <c r="BB174" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC174" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175">
@@ -29063,6 +29585,9 @@
       <c r="BB175" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC175" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176">
@@ -29227,6 +29752,9 @@
       <c r="BB176" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC176" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177">
@@ -29391,6 +29919,9 @@
       <c r="BB177" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC177" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178">
@@ -29555,6 +30086,9 @@
       <c r="BB178" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC178" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179">
@@ -29719,6 +30253,9 @@
       <c r="BB179" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC179" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180">
@@ -29883,6 +30420,9 @@
       <c r="BB180" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC180" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181">
@@ -30044,6 +30584,9 @@
       <c r="BB181" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC181" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182">
@@ -30208,6 +30751,9 @@
       <c r="BB182" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC182" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183">
@@ -30372,6 +30918,9 @@
       <c r="BB183" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC183" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184">
@@ -30536,6 +31085,9 @@
       <c r="BB184" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC184" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185">
@@ -30697,6 +31249,9 @@
       <c r="BB185" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC185" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186">
@@ -30861,6 +31416,9 @@
       <c r="BB186" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC186" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187">
@@ -31025,6 +31583,9 @@
       <c r="BB187" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC187" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188">
@@ -31189,6 +31750,9 @@
       <c r="BB188" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC188" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189">
@@ -31353,6 +31917,9 @@
       <c r="BB189" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC189" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190">
@@ -31517,6 +32084,9 @@
       <c r="BB190" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC190" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191">
@@ -31681,6 +32251,9 @@
       <c r="BB191" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC191" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192">
@@ -31845,6 +32418,9 @@
       <c r="BB192" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC192" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193">
@@ -32009,6 +32585,9 @@
       <c r="BB193" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC193" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194">
@@ -32170,6 +32749,9 @@
       <c r="BB194" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC194" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195">
@@ -32334,6 +32916,9 @@
       <c r="BB195" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC195" t="str">
+        <v>0/0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196">
@@ -32495,10 +33080,13 @@
       <c r="BB196" t="str">
         <v>0/0</v>
       </c>
+      <c r="BC196" t="str">
+        <v>0/0</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BB196"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BC196"/>
   </ignoredErrors>
 </worksheet>
 </file>
